--- a/src/experiment/results/experiment_results_colon.xlsx
+++ b/src/experiment/results/experiment_results_colon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,46 @@
           <t>C</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cpu_threads</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>tau</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>n_features</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Top 10 Correlation Features</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Overlap Count</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Overlap Ratio</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Common Features</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -514,7 +554,7 @@
         <v>0.7666340384721162</v>
       </c>
       <c r="G2" t="n">
-        <v>0.501980209350586</v>
+        <v>0.3745866775512695</v>
       </c>
       <c r="H2" t="n">
         <v>4.8</v>
@@ -530,6 +570,26 @@
       <c r="K2" t="n">
         <v>0.125</v>
       </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>249, 765, 493, 1423, 245, 267, 377, 822, 1892, 1772</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>377, 493, 765</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -543,34 +603,54 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7730769230769231</v>
+        <v>0.7102564102564102</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7533333333333333</v>
+        <v>0.7114285714285714</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7721083156609472</v>
+        <v>0.7100990993870251</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7391749625070801</v>
+        <v>0.6891016258047796</v>
       </c>
       <c r="G3" t="n">
-        <v>0.649147891998291</v>
+        <v>0.3941226005554199</v>
       </c>
       <c r="H3" t="n">
         <v>4.8</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>249, 897, 1423</t>
+          <t>66, 249, 377, 493, 980</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
         <v>0.125</v>
       </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>249, 1423, 765, 1771, 822, 780, 897, 267, 838, 1346</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -584,34 +664,50 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7076923076923076</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7022222222222222</v>
+        <v>0.7108333333333332</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7102989846410899</v>
+        <v>0.6978928089454405</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6776042097645456</v>
+        <v>0.6878683893945906</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4828815937042236</v>
+        <v>0.3891157627105713</v>
       </c>
       <c r="H4" t="n">
-        <v>18.2</v>
+        <v>10.2</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>177, 500, 657, 684, 765, 839, 1283, 1423, 1644, 1751, 1760, 1873, 1895, 1929, 1976, 1979</t>
+          <t>249, 493, 523, 897, 1355, 1423, 1482, 1895, 1976</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K4" t="n">
-        <v>16</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1924, 927, 18, 99, 792, 14, 209, 624, 1203, 377</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -625,34 +721,1558 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7108333333333332</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6978928089454405</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6878683893945906</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3922952651977539</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>493, 897, 1355, 1411, 1423, 1482, 1895, 1976</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1667, 449, 56, 14, 1924, 875, 104, 514, 1750, 128</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>L2SVM</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Not noise</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7564102564102565</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7576301476301477</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.7524455553043677</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.322624683380127</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>249, 765, 493, 1423, 245, 267, 377, 822, 1892, 1772</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>245, 249, 267, 377, 493, 765, 822, 1423, 1772, 1892</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>L2SVM</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Noise</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6602564102564104</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6753174603174603</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6598404691283949</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.6458382477772859</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3277135372161865</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>249, 1423, 765, 1771, 822, 780, 897, 267, 838, 1346</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>249, 267, 765, 780, 822, 838, 897, 1346, 1423, 1771</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>L2SVM</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>0.676923076923077</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.6850793650793652</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.6728159340659341</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.6502741231196215</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.4939258575439453</v>
-      </c>
-      <c r="H5" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>101, 151, 177, 201, 464, 684, 765, 831, 1160, 1200, 1304, 1485, 1671, 1750, 1895, 1929</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>16</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="D8" t="n">
+        <v>0.6858333333333333</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.682211562087723</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.6619170869952062</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.3029089450836182</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1924, 927, 18, 99, 792, 14, 209, 624, 1203, 377</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>10</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>14, 18, 99, 209, 377, 624, 792, 927, 1203, 1924</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>L2SVM</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Noise + Outlier</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6935897435897436</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6969444444444444</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6987194985956596</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6747670000948797</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.3652485370635986</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>8</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1667, 449, 56, 14, 1924, 875, 104, 514, 1750, 128</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>10</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>14, 56, 104, 128, 449, 514, 875, 1667, 1750, 1924</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MILP1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Not noise</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7576923076923078</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7575000000000001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7579796673914322</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7461280350572596</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.455582237243652</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>70, 249, 377, 657, 765, 1644, 1668, 1909</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>249, 765, 493, 1423, 245, 267, 377, 822, 1892, 1772</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>249, 377, 765</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MILP1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Noise</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7769230769230769</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7572619047619048</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7725454112451017</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.7406107530814028</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.721442794799805</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>249, 1423, 765, 1771, 822, 780, 897, 267, 838, 1346</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MILP1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.708974358974359</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7219444444444444</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7140832851359167</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.7020965070801498</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.302822160720825</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>377, 765, 988, 1873, 1895, 1967, 1976</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>7</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1924, 927, 18, 99, 792, 14, 209, 624, 1203, 377</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.1429</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MILP1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Noise + Outlier</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7435897435897436</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7302777777777778</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7447885929000481</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.7112954538550212</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.028963851928711</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>1667, 449, 56, 14, 1924, 875, 104, 514, 1750, 128</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PinFSSVM</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Not noise</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8243589743589744</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8074999999999999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8190424000950317</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.792530344514122</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.31292610168457</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>377, 765, 1644</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>249, 765, 493, 1423, 245, 267, 377, 822, 1892, 1772</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
         <v>2</v>
       </c>
+      <c r="R14" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>377, 765</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PinFSSVM</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Noise</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7769230769230769</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7572619047619048</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7725454112451017</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.7406107530814028</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.667245197296142</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>249, 1423, 765, 1771, 822, 780, 897, 267, 838, 1346</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PinFSSVM</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7423076923076922</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7655555555555555</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7517553089611912</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.7558225248712203</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.501979255676269</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>66, 377, 765, 897, 1423, 1895</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>6</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>1924, 927, 18, 99, 792, 14, 209, 624, 1203, 377</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PinFSSVM</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Noise + Outlier</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7897435897435897</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8002777777777779</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7966838444779621</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.791387375871067</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.559893608093262</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>66, 377, 493, 1873</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>1667, 449, 56, 14, 1924, 875, 104, 514, 1750, 128</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PinballSVM</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Not noise</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7730769230769232</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7775000000000001</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7742002442002442</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7675367530528364</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.438519954681396</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>249, 765, 493, 1423, 245, 267, 377, 822, 1892, 1772</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>10</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>245, 249, 267, 377, 493, 765, 822, 1423, 1772, 1892</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PinballSVM</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Noise</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.676923076923077</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.6882142857142857</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6780004962357904</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.6648144754073517</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.9996214389801026</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>249, 1423, 765, 1771, 822, 780, 897, 267, 838, 1346</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>10</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>249, 267, 765, 780, 822, 838, 897, 1346, 1423, 1771</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PinballSVM</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7108333333333332</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6978928089454405</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.6878683893945906</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.481364297866821</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>8</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>1924, 927, 18, 99, 792, 14, 209, 624, 1203, 377</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>10</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>14, 18, 99, 209, 377, 624, 792, 927, 1203, 1924</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PinballSVM</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Noise + Outlier</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7108333333333332</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6978928089454405</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.6878683893945906</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.130101299285889</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>1667, 449, 56, 14, 1924, 875, 104, 514, 1750, 128</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>10</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>14, 56, 104, 128, 449, 514, 875, 1667, 1750, 1924</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FisherSVM</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Not noise</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8230769230769232</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8074999999999999</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8177829188355504</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.791065227390831</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.567174577713013</v>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>286, 377, 493, 617, 765, 897, 1411, 1644, 1668, 1873</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>10</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>249, 765, 493, 1423, 245, 267, 377, 822, 1892, 1772</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>377, 493, 765</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FisherSVM</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Noise</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7269230769230769</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.7211507936507936</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.725833226371152</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7033444874187246</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4.113756561279297</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>249, 377, 493, 980, 1482, 1644</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>6</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>249, 1423, 765, 1771, 822, 780, 897, 267, 838, 1346</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FisherSVM</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7576923076923078</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7552777777777778</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7602914478881971</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7393616916598027</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.900249481201172</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>66, 377, 493, 617, 765, 897, 1504, 1873</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>1924, 927, 18, 99, 792, 14, 209, 624, 1203, 377</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FisherSVM</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Noise + Outlier</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7589743589743591</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.7413888888888889</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7589779737806054</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.722948290830369</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4.71505560874939</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>66, 377, 493, 617, 765, 897, 1504, 1873</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>8</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>1667, 449, 56, 14, 1924, 875, 104, 514, 1750, 128</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>RFESVM</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Not noise</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7910256410256411</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.7825</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7874021884548201</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.7666340384721162</v>
+      </c>
+      <c r="G26" t="n">
+        <v>942.1257566928864</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>66, 377, 493, 765, 1644</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="n">
+        <v>500</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>249, 765, 493, 1423, 245, 267, 377, 822, 1892, 1772</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>377, 493, 765</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>RFESVM</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Noise</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.7102564102564102</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.7114285714285714</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7100990993870251</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.6891016258047796</v>
+      </c>
+      <c r="G27" t="n">
+        <v>844.9588437080383</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>66, 249, 377, 493, 980</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="n">
+        <v>500</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>249, 1423, 765, 1771, 822, 780, 897, 267, 838, 1346</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>RFESVM</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.7108333333333332</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.6978928089454405</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.6878683893945906</v>
+      </c>
+      <c r="G28" t="n">
+        <v>965.4112929344177</v>
+      </c>
+      <c r="H28" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>249, 493, 523, 897, 1355, 1423, 1482, 1895, 1976</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>9</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="n">
+        <v>500</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1924, 927, 18, 99, 792, 14, 209, 624, 1203, 377</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>RFESVM</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Noise + Outlier</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.7108333333333332</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.6978928089454405</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.6878683893945906</v>
+      </c>
+      <c r="G29" t="n">
+        <v>564.0783710479736</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>493, 897, 1355, 1411, 1423, 1482, 1895, 1976</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>8</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="n">
+        <v>500</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>1667, 449, 56, 14, 1924, 875, 104, 514, 1750, 128</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
